--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>case_name</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
@@ -31,10 +34,16 @@
     <t>login</t>
   </si>
   <si>
+    <t>http://127.0.0.1:8888/login</t>
+  </si>
+  <si>
     <t>/login</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=111</t>
+    <t>{
+ "name": "xiaoming",
+ "pwd": "111"
+}</t>
   </si>
   <si>
     <t>post</t>
@@ -43,13 +52,19 @@
     <t>login_error</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=111222</t>
+    <t>{
+ "name": "xiaoming",
+ "pwd": "111222"
+}</t>
   </si>
   <si>
     <t>login_null</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=</t>
+    <t>{
+ "name": "xiaoming",
+ "pwd": ""
+}</t>
   </si>
 </sst>
 </file>
@@ -71,6 +86,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -78,9 +155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,58 +164,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,8 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,54 +217,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +239,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,157 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,15 +465,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -472,22 +478,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,16 +506,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,139 +548,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -735,7 +754,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1014,21 +1033,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,50 +1060,67 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="57.6" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" ht="57.6" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:8888/login"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://127.0.0.1:8888/login"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://127.0.0.1:8888/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
